--- a/international/france/finance/FR/budget/10_souverainete_resilience/10_souverainete_resilience_budget.xlsx
+++ b/international/france/finance/FR/budget/10_souverainete_resilience/10_souverainete_resilience_budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mesure</t>
   </si>
@@ -52,19 +52,25 @@
     <t>Total – Haute (M€)</t>
   </si>
   <si>
-    <t>Service civique universel revalorisé</t>
-  </si>
-  <si>
-    <t>Développement d’une Garde Territoriale Citoyenne</t>
-  </si>
-  <si>
-    <t>École nationale de la résilience</t>
-  </si>
-  <si>
-    <t>Veille éthique et lanceurs d’alerte</t>
-  </si>
-  <si>
-    <t>Plan communal de sécurisation solidaire</t>
+    <t>Moratoire sur les privatisations</t>
+  </si>
+  <si>
+    <t>Souveraineté alimentaire</t>
+  </si>
+  <si>
+    <t>Souveraineté énergétique</t>
+  </si>
+  <si>
+    <t>Souveraineté monétaire assumée</t>
+  </si>
+  <si>
+    <t>Numérique éthique &amp; outils publics</t>
+  </si>
+  <si>
+    <t>Refondation des traités</t>
+  </si>
+  <si>
+    <t>Renforcement du droit local</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,34 +483,34 @@
         <v>2027</v>
       </c>
       <c r="C2">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="D2">
-        <v>562</v>
+        <v>210</v>
       </c>
       <c r="E2">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="F2">
-        <v>675</v>
+        <v>180</v>
       </c>
       <c r="G2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>562</v>
+        <v>120</v>
       </c>
       <c r="I2">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="K2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="L2">
-        <v>2249</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -515,34 +521,34 @@
         <v>2027</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D3">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F3">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="H3">
-        <v>375</v>
+        <v>540</v>
       </c>
       <c r="I3">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J3">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,34 +559,34 @@
         <v>2027</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E4">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="F4">
+        <v>540</v>
+      </c>
+      <c r="G4">
+        <v>489</v>
+      </c>
+      <c r="H4">
+        <v>630</v>
+      </c>
+      <c r="I4">
+        <v>280</v>
+      </c>
+      <c r="J4">
         <v>360</v>
       </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
-      </c>
-      <c r="I4">
-        <v>160</v>
-      </c>
-      <c r="J4">
-        <v>240</v>
-      </c>
       <c r="K4">
-        <v>800</v>
+        <v>1399</v>
       </c>
       <c r="L4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -591,34 +597,34 @@
         <v>2027</v>
       </c>
       <c r="C5">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E5">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>240</v>
+      </c>
+      <c r="G5">
         <v>150</v>
       </c>
-      <c r="F5">
-        <v>225</v>
-      </c>
-      <c r="G5">
-        <v>125</v>
-      </c>
       <c r="H5">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L5">
-        <v>749</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -629,69 +635,145 @@
         <v>2027</v>
       </c>
       <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6">
         <v>300</v>
       </c>
-      <c r="D6">
-        <v>450</v>
-      </c>
-      <c r="E6">
-        <v>360</v>
-      </c>
       <c r="F6">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="G6">
         <v>300</v>
       </c>
       <c r="H6">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="I6">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="J6">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="K6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L6">
-        <v>1800</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>2027</v>
+      </c>
       <c r="C7">
-        <v>1250</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>1874</v>
+        <v>150</v>
       </c>
       <c r="E7">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="F7">
-        <v>2250</v>
+        <v>180</v>
       </c>
       <c r="G7">
-        <v>1250</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>1874</v>
+        <v>150</v>
       </c>
       <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>120</v>
+      </c>
+      <c r="K7">
+        <v>400</v>
+      </c>
+      <c r="L7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2027</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>165</v>
+      </c>
+      <c r="E8">
+        <v>350</v>
+      </c>
+      <c r="F8">
+        <v>385</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>330</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>220</v>
+      </c>
+      <c r="K8">
         <v>1000</v>
       </c>
-      <c r="J7">
-        <v>1500</v>
-      </c>
-      <c r="K7">
-        <v>5000</v>
-      </c>
-      <c r="L7">
-        <v>7498</v>
+      <c r="L8">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1220</v>
+      </c>
+      <c r="D9">
+        <v>1655</v>
+      </c>
+      <c r="E9">
+        <v>1850</v>
+      </c>
+      <c r="F9">
+        <v>2455</v>
+      </c>
+      <c r="G9">
+        <v>1779</v>
+      </c>
+      <c r="H9">
+        <v>2360</v>
+      </c>
+      <c r="I9">
+        <v>1150</v>
+      </c>
+      <c r="J9">
+        <v>1530</v>
+      </c>
+      <c r="K9">
+        <v>5999</v>
+      </c>
+      <c r="L9">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
